--- a/data/trans_orig/AIRE_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77600C49-2A90-458E-BFD4-4921E2127CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B277D3B-FDAA-4C50-9238-7C688B1BEA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CBA58210-85E9-4ACE-89BE-87C1D5E77190}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{64D13856-A772-4337-9C6E-9C3D6D5E6DDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="236">
   <si>
     <t>Población según los motivos por los que no pagaría para realizar actuaciones que reduzcan la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 38,8%)</t>
   </si>
@@ -65,814 +65,682 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Otro motivo</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>No puedo permitírmelo (económicamente)</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>Ya pago demasiados impuestos</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>No me siento responsable de la contaminación del aire</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>No puedo permitírmelo (económicamente)</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>Ya pago demasiados impuestos</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>No me siento responsable de la contaminación del aire</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>12,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1287,8 +1155,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D956C5-148C-4D96-A652-3F7FF88DF701}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B6EEBA-96A5-42A3-A77D-34829AF496AC}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1405,10 +1273,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>2852</v>
+        <v>27958</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1420,10 +1288,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>12151</v>
+        <v>31286</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1435,10 +1303,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="N4" s="7">
-        <v>15002</v>
+        <v>59244</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1456,10 +1324,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7">
-        <v>7663</v>
+        <v>67503</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1471,10 +1339,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="I5" s="7">
-        <v>23632</v>
+        <v>82095</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1486,10 +1354,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>57</v>
+        <v>263</v>
       </c>
       <c r="N5" s="7">
-        <v>31295</v>
+        <v>149598</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1507,97 +1375,97 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>10956</v>
+        <v>80425</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I6" s="7">
-        <v>11816</v>
+        <v>78616</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>22773</v>
+        <v>159041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>2100</v>
+        <v>34703</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7">
+        <v>53</v>
+      </c>
+      <c r="I7" s="7">
+        <v>29717</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="7">
+        <v>94</v>
+      </c>
+      <c r="N7" s="7">
+        <v>64420</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2233</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="7">
-        <v>7</v>
-      </c>
-      <c r="N7" s="7">
-        <v>4333</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>48</v>
@@ -1609,49 +1477,49 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>38665</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>1013</v>
+        <v>37196</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="N8" s="7">
-        <v>1013</v>
+        <v>75862</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,102 +1528,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="D9" s="7">
-        <v>23571</v>
+        <v>249255</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>96</v>
+        <v>493</v>
       </c>
       <c r="I9" s="7">
-        <v>50846</v>
+        <v>258910</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>791</v>
       </c>
       <c r="N9" s="7">
-        <v>74416</v>
+        <v>508165</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>23165</v>
+        <v>30536</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>21312</v>
+        <v>37026</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>44477</v>
+        <v>67563</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,49 +1632,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7">
-        <v>63109</v>
+        <v>80140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="I11" s="7">
-        <v>63206</v>
+        <v>102890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="N11" s="7">
-        <v>126314</v>
+        <v>183031</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1815,100 +1683,100 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>166</v>
+      </c>
+      <c r="D12" s="7">
+        <v>158189</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="7">
+        <v>192</v>
+      </c>
+      <c r="I12" s="7">
+        <v>121028</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="7">
+        <v>358</v>
+      </c>
+      <c r="N12" s="7">
+        <v>279217</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="D12" s="7">
-        <v>70999</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="7">
-        <v>129</v>
-      </c>
-      <c r="I12" s="7">
-        <v>71289</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="7">
-        <v>215</v>
-      </c>
-      <c r="N12" s="7">
-        <v>142287</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7">
-        <v>36123</v>
+        <v>61890</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="I13" s="7">
-        <v>30977</v>
+        <v>68169</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="N13" s="7">
-        <v>67100</v>
+        <v>130060</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,49 +1785,49 @@
         <v>49</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7">
-        <v>41505</v>
+        <v>27333</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7">
-        <v>41278</v>
+        <v>34069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>82783</v>
+        <v>61402</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,102 +1836,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="D15" s="7">
-        <v>234901</v>
+        <v>358089</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>397</v>
+        <v>577</v>
       </c>
       <c r="I15" s="7">
-        <v>228061</v>
+        <v>363182</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>664</v>
+        <v>946</v>
       </c>
       <c r="N15" s="7">
-        <v>462962</v>
+        <v>721271</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>27757</v>
+        <v>30237</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>39682</v>
+        <v>19819</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N16" s="7">
-        <v>67439</v>
+        <v>50056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,49 +1940,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>84060</v>
+        <v>62178</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="I17" s="7">
-        <v>112672</v>
+        <v>281552</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="N17" s="7">
-        <v>196732</v>
+        <v>343730</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,100 +1991,100 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="D18" s="7">
-        <v>160381</v>
+        <v>103738</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="7">
         <v>119</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
       <c r="I18" s="7">
-        <v>130713</v>
+        <v>74993</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="N18" s="7">
-        <v>291094</v>
+        <v>178731</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>69688</v>
+        <v>27749</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>80475</v>
+        <v>28537</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="N19" s="7">
-        <v>150163</v>
+        <v>56286</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,49 +2093,49 @@
         <v>49</v>
       </c>
       <c r="C20" s="7">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>29429</v>
+        <v>15415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I20" s="7">
-        <v>39111</v>
+        <v>16504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N20" s="7">
-        <v>68541</v>
+        <v>31919</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,102 +2144,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="D21" s="7">
-        <v>371315</v>
+        <v>239317</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>577</v>
+        <v>347</v>
       </c>
       <c r="I21" s="7">
-        <v>402654</v>
+        <v>421404</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>946</v>
+        <v>579</v>
       </c>
       <c r="N21" s="7">
-        <v>773968</v>
+        <v>660721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>30575</v>
+        <v>29878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>21411</v>
+        <v>16957</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N22" s="7">
-        <v>51987</v>
+        <v>46835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,49 +2248,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D23" s="7">
-        <v>64415</v>
+        <v>76039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="I23" s="7">
-        <v>191766</v>
+        <v>121133</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="N23" s="7">
-        <v>256181</v>
+        <v>197172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,100 +2299,100 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D24" s="7">
-        <v>109142</v>
+        <v>132667</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="I24" s="7">
-        <v>81021</v>
+        <v>147846</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
-        <v>222</v>
+        <v>380</v>
       </c>
       <c r="N24" s="7">
-        <v>190163</v>
+        <v>280513</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7">
-        <v>30655</v>
+        <v>67340</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="I25" s="7">
-        <v>32423</v>
+        <v>59445</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="N25" s="7">
-        <v>63078</v>
+        <v>126785</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,49 +2401,49 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D26" s="7">
-        <v>16973</v>
+        <v>56438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="I26" s="7">
-        <v>18502</v>
+        <v>81347</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="N26" s="7">
-        <v>35475</v>
+        <v>137785</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,99 +2452,99 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>232</v>
+        <v>407</v>
       </c>
       <c r="D27" s="7">
-        <v>251760</v>
+        <v>362363</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
-        <v>347</v>
+        <v>669</v>
       </c>
       <c r="I27" s="7">
-        <v>345123</v>
+        <v>426728</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>579</v>
+        <v>1076</v>
       </c>
       <c r="N27" s="7">
-        <v>596884</v>
+        <v>789091</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D28" s="7">
-        <v>29417</v>
+        <v>118610</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="I28" s="7">
-        <v>18461</v>
+        <v>105088</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="N28" s="7">
-        <v>47878</v>
+        <v>223698</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>199</v>
@@ -2688,10 +2556,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="D29" s="7">
-        <v>79005</v>
+        <v>285861</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>200</v>
@@ -2703,10 +2571,10 @@
         <v>202</v>
       </c>
       <c r="H29" s="7">
-        <v>190</v>
+        <v>667</v>
       </c>
       <c r="I29" s="7">
-        <v>134583</v>
+        <v>587670</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>203</v>
@@ -2718,10 +2586,10 @@
         <v>205</v>
       </c>
       <c r="M29" s="7">
-        <v>281</v>
+        <v>995</v>
       </c>
       <c r="N29" s="7">
-        <v>213588</v>
+        <v>873531</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>206</v>
@@ -2739,10 +2607,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>150</v>
+        <v>518</v>
       </c>
       <c r="D30" s="7">
-        <v>136594</v>
+        <v>475019</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>209</v>
@@ -2754,10 +2622,10 @@
         <v>211</v>
       </c>
       <c r="H30" s="7">
-        <v>230</v>
+        <v>697</v>
       </c>
       <c r="I30" s="7">
-        <v>161145</v>
+        <v>422483</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>212</v>
@@ -2769,10 +2637,10 @@
         <v>214</v>
       </c>
       <c r="M30" s="7">
-        <v>380</v>
+        <v>1215</v>
       </c>
       <c r="N30" s="7">
-        <v>297739</v>
+        <v>897502</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>215</v>
@@ -2787,13 +2655,13 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="D31" s="7">
-        <v>73824</v>
+        <v>191683</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>218</v>
@@ -2805,10 +2673,10 @@
         <v>220</v>
       </c>
       <c r="H31" s="7">
-        <v>88</v>
+        <v>284</v>
       </c>
       <c r="I31" s="7">
-        <v>66701</v>
+        <v>185868</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>221</v>
@@ -2820,10 +2688,10 @@
         <v>223</v>
       </c>
       <c r="M31" s="7">
-        <v>157</v>
+        <v>492</v>
       </c>
       <c r="N31" s="7">
-        <v>140525</v>
+        <v>377551</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>224</v>
@@ -2832,7 +2700,7 @@
         <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,25 +2709,25 @@
         <v>49</v>
       </c>
       <c r="C32" s="7">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="D32" s="7">
-        <v>59256</v>
+        <v>137852</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="H32" s="7">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="I32" s="7">
-        <v>91091</v>
+        <v>169115</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>229</v>
@@ -2871,10 +2739,10 @@
         <v>231</v>
       </c>
       <c r="M32" s="7">
-        <v>206</v>
+        <v>449</v>
       </c>
       <c r="N32" s="7">
-        <v>150346</v>
+        <v>306967</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>232</v>
@@ -2892,370 +2760,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>407</v>
+        <v>1306</v>
       </c>
       <c r="D33" s="7">
-        <v>378096</v>
+        <v>1209025</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
-        <v>669</v>
+        <v>2086</v>
       </c>
       <c r="I33" s="7">
-        <v>471980</v>
+        <v>1470224</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
-        <v>1076</v>
+        <v>3392</v>
       </c>
       <c r="N33" s="7">
-        <v>850076</v>
+        <v>2679249</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>81</v>
-      </c>
-      <c r="D34" s="7">
-        <v>113767</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="A34" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H34" s="7">
-        <v>160</v>
-      </c>
-      <c r="I34" s="7">
-        <v>113016</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M34" s="7">
-        <v>241</v>
-      </c>
-      <c r="N34" s="7">
-        <v>226783</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>328</v>
-      </c>
-      <c r="D35" s="7">
-        <v>298251</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="7">
-        <v>667</v>
-      </c>
-      <c r="I35" s="7">
-        <v>525859</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M35" s="7">
-        <v>995</v>
-      </c>
-      <c r="N35" s="7">
-        <v>824111</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>518</v>
-      </c>
-      <c r="D36" s="7">
-        <v>488072</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H36" s="7">
-        <v>697</v>
-      </c>
-      <c r="I36" s="7">
-        <v>455984</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1215</v>
-      </c>
-      <c r="N36" s="7">
-        <v>944056</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="7">
-        <v>208</v>
-      </c>
-      <c r="D37" s="7">
-        <v>212389</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="7">
-        <v>284</v>
-      </c>
-      <c r="I37" s="7">
-        <v>212809</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M37" s="7">
-        <v>492</v>
-      </c>
-      <c r="N37" s="7">
-        <v>425198</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="7">
-        <v>171</v>
-      </c>
-      <c r="D38" s="7">
-        <v>147163</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H38" s="7">
-        <v>278</v>
-      </c>
-      <c r="I38" s="7">
-        <v>190995</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="M38" s="7">
-        <v>449</v>
-      </c>
-      <c r="N38" s="7">
-        <v>338159</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1306</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1259642</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="7">
-        <v>2086</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1498664</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M39" s="7">
-        <v>3392</v>
-      </c>
-      <c r="N39" s="7">
-        <v>2758306</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>279</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
